--- a/catalog_results_grouped.xlsx
+++ b/catalog_results_grouped.xlsx
@@ -473,20 +473,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)
-Paragraph 1 (DE): Das Objekt ist eine Teekanne, die zum Kochen und Servieren von Tee verwendet wird.
-Paragraph 2 (DE): Die Teekanne hat eine runde Form mit einem langen Auslauf und einem ergonomisch geformten Griff, der mit Rohrgeflecht umwickelt ist. Der Deckel hat einen kleinen Griff in der Mitte. Die Oberfläche ist in einem matten goldenen Finish mit einer gehämmerten Struktur ausgeführt. Angaben laut Liste: Hersteller: Allgemeine Elektricitäts-Gesellschaft AEG AG
-AEG-Produktsammlung; Material: Metall (u.a. Alt-Messing), Rohrgeflecht, Holz; Maße: Objektmaß TxBxH: 240 x 121 x 197 mm
-Masse: 0,8 kg; Jahr: 20.Jh. 1.H..
-Paragraph 3 (DE): Der Zustand des Objekts zeigt einige leichte Gebrauchsspuren und eine kleine Korrosion.
----
-Paragraph 1 (EN): The object is a teapot used for boiling and serving tea.
-Paragraph 2 (EN): The teapot has a rounded shape with a long spout and an ergonomically shaped handle wrapped in woven material. The lid features a small handle in the center. The surface has a matte golden finish with a hammered texture. According to the list: Manufacturer: Allgemeine Elektricitäts-Gesellschaft AEG AG
-AEG-Produktsammlung; Material: Metall (u.a. Alt-Messing), Rohrgeflecht, Holz; Dimensions: Objektmaß TxBxH: 240 x 121 x 197 mm
-Masse: 0,8 kg; Year: 20.Jh. 1.H..
-Paragraph 3 (EN): The condition of the object shows some light signs of use and minor corrosion.
-2) CAPTION (German)
-Teekanne aus Metall mit gehämmerter Oberfläche und Rohrgeflecht-Griff, datierungslos.</t>
+          <t>Caption line (German)  
+Wasserkocher
+German description:  
+Der Wasserkocher dient zum Erhitzen von Wasser.
+Der Wasserkocher hat eine runde Form mit einem langen Ausguss und einem Henkel aus Rohrgeflecht. Er besteht aus Alt-Messing und hat eine sichtbar gehämmerte Oberfläche. Es gibt einen Deckel mit einem Drehknopf, der leicht abnehmbar ist. Angaben laut Liste: Hersteller: Allgemeine Elektricitäts-Gesellschaft AEG AG; Material: Metall (u.a. Alt-Messing), Rohrgeflecht, Holz; Maße: 240 x 121 x 197 mm; Jahr: 20.Jh. 1.H.
+Der Wasserkocher ist in gutem Zustand, jedoch sind leichte Kratzer an der Oberfläche vorhanden.
+English description:  
+The kettle is used for heating water.
+The kettle has a round shape with a long spout and a handle made of woven material. It is made of brass and features a visibly hammered surface. There is a lid with a turning knob that is easily removable. According to the list: Manufacturer: Allgemeine Elektricitäts-Gesellschaft AEG AG; Material: Metal (including antique brass), woven material, wood; Dimensions: 240 x 121 x 197 mm; Year: 20th century, early.
+The kettle is in good condition, though there are slight scratches on the surface.</t>
         </is>
       </c>
     </row>
@@ -508,18 +504,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)  
-Paragraph 1 (DE): Das Objekt ist eine Kaffeemühle. Sie dient zur Zubereitung von frisch gemahlenem Kaffee.  
-Paragraph 2 (DE): Die Kaffeemühle hat eine kompakte, rechteckige Form mit einer oberen und einer unteren transparenten Kammer. Sie ist in Schwarz gehalten und hat einen roten Drehknopf an der Oberseite. Auf der Vorderseite befindet sich eine Öffnung zur Ablage des gemahlenen Kaffees. Sichtbare Beschriftungen: „Black Line“ und „AEG“.  
-Angaben laut Liste: Hersteller: AEG-Telefunken AG; AEG-Produktsammlung; Material: Kunststoff, Metall; Maße: Objektmaß LxBxH: 170 x 90 x 220 mm; Masse: 1,38 kg; Jahr: Herstellungsjahr, 1985.  
-Paragraph 3 (DE): Es sind keine sichtbaren Schäden oder Abnutzungserscheinungen erkennbar.  
----
-Paragraph 1 (EN): The object is a coffee grinder. It is used for preparing freshly ground coffee.  
-Paragraph 2 (EN): The coffee grinder has a compact, rectangular shape with an upper and a lower transparent chamber. It is black and features a red rotating knob on the top. There is an opening on the front for dispensing the ground coffee. Visible labels: "Black Line" and "AEG".  
-According to the list: Manufacturer: AEG-Telefunken AG; AEG-Produktsammlung; Material: Kunststoff, Metall; Dimensions: Objektmaß LxBxH: 170 x 90 x 220 mm; Masse: 1,38 kg; Year: Herstellungsjahr, 1985.  
-Paragraph 3 (EN): No visible damage or signs of wear are apparent.  
-2) CAPTION (German)  
-Kaffeemühle aus Kunststoff und Metall in Schwarz, dient der Zubereitung von frisch gemahlenem Kaffee, datierungslos.</t>
+          <t>Caption line (German)  
+Küchenmaschine von AEG-Telefunken AG
+German description:  
+Ein Küchengerät zum Zubereiten von Lebensmitteln.
+Das Objekt hat eine rechteckige Form mit zwei durchsichtigen Behältern oben und unten. Es besitzt einen roten Knopf oben, eine Schnur zum Anschluss an eine Stromquelle und ist aus Kunststoff und Metall gefertigt. Angaben laut Liste: Hersteller: AEG-Telefunken AG; Material: Kunststoff, Metall; Maße: 170 x 90 x 220 mm; Jahr: 1985.
+Der Zustand ist gut mit einigen Gebrauchsspuren.
+English description:  
+A kitchen appliance for food preparation.
+The object has a rectangular shape with two transparent containers at the top and bottom. It features a red button on top, a cord for connection to a power source, and is made of plastic and metal. According to the list: Manufacturer: AEG-Telefunken AG; Material: Kunststoff, Metall; Dimensions: 170 x 90 x 220 mm; Year: 1985.
+The condition is good with some signs of wear.</t>
         </is>
       </c>
     </row>
@@ -541,20 +535,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)
-Paragraph 1 (DE): Der Objekttyp ist ein Heißwasserautomat. Sein Zweck ist es, heißes Wasser bereitzustellen.
-Paragraph 2 (DE): Die Form des Geräts ist zylindrisch mit einem runden oberen Teil und einem stabilen Standfuß. An der Vorderseite befinden sich zwei rote Hebel. Die Farbgebung ist schwarz mit goldenen und roten Akzenten. Sichtbare Materialien sind Kunststoff und Metall. Es sind die folgenden Beschriftungen zu sehen: "Black Line" und "AEG". Angaben laut Liste: Hersteller: AEG AG
-AEG-Produktsammlung; Material: Kunststoff, Metall; Maße: Ø Höhe: 135 x 260 mm
-Masse: 1 kg; Jahr: Herstellungsjahr, 1985.
-Paragraph 3 (DE): Es sind keine Schäden, Kratzer oder Abnutzungen sichtbar.
----
-Paragraph 1 (EN): The object type is a hot water dispenser. Its purpose is to provide hot water.
-Paragraph 2 (EN): The shape of the device is cylindrical with a round top and a stable base. There are two red levers on the front. The color scheme is black with gold and red accents. Visible materials are plastic and metal. The following inscriptions are visible: "Black Line" and "AEG". According to the list: Manufacturer: AEG AG
-AEG-Produktsammlung; Material: Kunststoff, Metall; Dimensions: Ø Höhe: 135 x 260 mm
-Masse: 1 kg; Year: Herstellungsjahr, 1985.
-Paragraph 3 (EN): No damage, scratches, or wear are visible.
-2) CAPTION (German)
-Heißwasserautomat, zur Bereitstellung von heißem Wasser, Kunststoff und Metall, datierungslos.</t>
+          <t xml:space="preserve"> caption line (German)  
+Heißwasserautomat von AEG aus dem Jahr 1985.
+German description:  
+Der Heißwasserautomat erfüllt die Funktion eines Wasserkessels zur schnellen Erhitzung von Wasser.
+Der Automat hat eine zylindrische Form mit einer glänzenden, schwarzen Oberfläche. An der Vorderseite befinden sich zwei rote Hebel. Informationen sind abgedruckt, darunter „AEG“ und „Black Line“. Angaben laut Liste: Hersteller: AEG AG; Material: Kunststoff, Metall; Maße: Ø Höhe: 135 x 260 mm; Jahr: 1985.
+Der Zustand des Objekts weist keine offensichtlichen Mängel auf.
+English description:  
+The hot water dispenser functions as a kettle for quickly heating water.
+The appliance has a cylindrical shape with a glossy black finish. On the front, there are two red levers. Information is printed, including "AEG" and "Black Line". According to the list: Manufacturer: AEG AG; Material: Kunststoff, Metall; Dimensions: Ø Höhe: 135 x 260 mm; Year: 1985.
+The condition of the object shows no obvious flaws.</t>
         </is>
       </c>
     </row>
@@ -576,15 +566,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)
-Paragraph 1 (DE): Dieses Objekt ist eine Kaffeemühle. Sie dient zum Mahlen von Kaffeebohnen.
-Paragraph 2 (DE): Die Kaffeemühle hat eine kompakte, rechteckige Form mit einer abgerundeten Oberseite. Die Oberseite ist braun und transparent, das Gehäuse ist orange. Sie verfügt über einen Knopf und eine Öffnung zum Einfüllen von Kaffeebohnen. An der Seite befindet sich eine transparente Kammer für das gemahlene Kaffee. Die Oberfläche ist glänzend. Das Kabel ist abnehmbar. Angabez laut Liste: Hersteller: AEG-Telefunken AG AEG-Produktsammlung; Material: Kunststoff, Metall; Maße: Objektmaß LxBxH: 170 x 90 x 155 mm Masse: 1,24 kg; Jahr: Herst.-Zeitraum, 1976 - 1979 Herst.-Zeitraum, 1978 - 1979.
-Paragraph 3 (DE): Der Zustand ist gut, jedoch sind keine Kratzer oder Abplatzungen sichtbar.
-Paragraph 1 (EN): This object is a coffee grinder. It is used for grinding coffee beans.
-Paragraph 2 (EN): The coffee grinder has a compact, rectangular shape with a rounded top. The top is brown and transparent, and the housing is orange. It features a button and an opening for adding coffee beans. On the side, there is a transparent chamber for the ground coffee. The surface is shiny. The cable is detachable. According to the list: Manufacturer: AEG-Telefunken AG AEG-Produktsammlung; Material: Kunststoff, Metall; Dimensions: Objektmaß LxBxH: 170 x 90 x 155 mm Masse: 1,24 kg; Year: Herst.-Zeitraum, 1976 - 1979 Herst.-Zeitraum, 1978 - 1979.
-Paragraph 3 (EN): The condition is good; however, no scratches or chipping are visible.
-2) CAPTION (German)
-Kaffeemühle, zum Mahlen von Kaffeebohnen, orange und braun, datierungslos.</t>
+          <t>Kaffeemeile
+Eine elektrische Kaffeemühle aus Kunststoff und Metall.
+German description:
+Die Kaffeemeile ist ein Küchengerät zum Mahlen von Kaffeebohnen. Sie hat eine quadratische Form mit abgerundeten Ecken und einen durchsichtigen Behälter für die gemahlenen Bohnen. Der obere Teil ist mit einem braunen Deckel versehen.
+Angaben laut Liste: Hersteller: AEG-Telefunken AG; Material: Kunststoff, Metall; Maße: Objektmaß LxBxH: 170 x 90 x 155 mm; Jahr: Herst.-Zeitraum, 1976 - 1979.
+Der Zustand zeigt keine sichtbaren Kratzer oder Abplatzungen.
+English description:
+The coffee grinder is a kitchen device for grinding coffee beans. It has a square shape with rounded corners and a transparent container for the ground beans. The top features a brown lid.
+According to the list: Manufacturer: AEG-Telefunken AG; Material: Kunststoff, Metall; Dimensions: Objektmaß LxBxH: 170 x 90 x 155 mm; Year: Herst.-Zeitraum, 1976 - 1979.
+The condition shows no visible scratches or chipping.</t>
         </is>
       </c>
     </row>
@@ -606,24 +597,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)
-Paragraph 1 (DE): Das Objekt ist eine Kaffeemühle, die zum Mahlen von Kaffeebohnen dient.
-Paragraph 2 (DE): Die Kaffeemühle hat eine rechteckige Form und besteht aus zwei Hauptteilen, einer oberen Bohnenkammer und einem darunter liegenden Behälter für das gemahlene Kaffeepulver. Die Oberseite ist mit einem transparenten Deckel aus Kunststoff versehen. Auf der rechten Seite befindet sich ein weißer Drehregler mit einer grauen Markierung. Die Farben sind hauptsächlich Gelb mit braunen Akzenten. Angaben laut Liste: Hersteller: AEG-Telefunken AG
-AEG-Produktsammlung; Material: Kunststoff, Metall; Maße: Objektmaß LxBxH: 170 x 90 x 215 mm
-Masse: 1,38 kg; Jahr: Herst.-Zeitraum, 1976 - 1979
-Herst.-Zeitraum, 1978 - 1979
-Herstellungsjahr, 1979.
-Paragraph 3 (DE): Der Zustand zeigt keine auffälligen Mängel.
----
-Paragraph 1 (EN): The object is a coffee grinder used for grinding coffee beans.
-Paragraph 2 (EN): The coffee grinder has a rectangular shape and consists of two main parts: an upper bean chamber and a lower container for the ground coffee. The top is fitted with a transparent plastic lid. On the right side, there is a white rotary knob with a gray mark. The colors are mainly yellow with brown accents. According to the list: Manufacturer: AEG-Telefunken AG
-AEG-Produktsammlung; Material: Kunststoff, Metall; Dimensions: Objektmaß LxBxH: 170 x 90 x 215 mm
-Masse: 1,38 kg; Year: Herst.-Zeitraum, 1976 - 1979
-Herst.-Zeitraum, 1978 - 1979
-Herstellungsjahr, 1979.
-Paragraph 3 (EN): The condition shows no noticeable defects.
-2) CAPTION (German)
-Kaffeemühle in rechteckiger Form, zum Mahlen von Kaffeebohnen, aus Kunststoff, Metall, datierungslos.</t>
+          <t>Kaffeemehlmahlmaschine
+Die Kaffeemehlmahlmaschine dient der Zubereitung von frisch gemahlenem Kaffee.
+Die Maschine hat eine rechteckige Form mit zwei Behältern oben und unten, die aus transparentem Kunststoff gefertigt sind. Die Oberseite ist in dunklem Kunststoff und die darunterliegende Einheit ist in leuchtendem Orange gehalten. Der Griff sowie die Bedienelemente sind in Weiß. „AEG“ ist auf der seitlichen Fläche sichtbar. Angaben laut Liste: Hersteller: AEG-Telefunken AG; Material: Kunststoff, Metall; Maße: 170 x 90 x 215 mm; Jahr: 1979.
+Der Zustand zeigt keine nennenswerten Mängel wie Kratzer oder Abplatzungen.
+Coffee grinder
+The coffee grinder is used for preparing freshly ground coffee.
+The device has a rectangular shape with two containers on top and bottom, made of transparent plastic. The top container is dark plastic, and the underlying unit is bright orange. The handle and the control elements are white. “AEG” is visible on the side surface. According to the list: Manufacturer: AEG-Telefunken AG; Material: Kunststoff, Metall; Dimensions: 170 x 90 x 215 mm; Year: 1979.
+The condition shows no notable defects such as scratches or chipping.</t>
         </is>
       </c>
     </row>
@@ -645,18 +626,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)
-Paragraph 1 (DE): Objektart: Mehrfach-CD-ROM-Laufwerk mit interaktiven Funktionen.
-Paragraph 2 (DE): Das Gerät hat eine rechteckige Form mit mehreren Fächern für CD-ROMs. An der Vorderseite befinden sich Schlitze, Knöpfe und eine markierte Öffnung. Die Farbgestaltung ist überwiegend in Grau und Schwarz gehalten, mit einigen blauen Details. Es gibt keine sichtbaren Materialien oder Inschriften. 
-Angaben laut Liste: Hersteller: Philips - Koninklijke Philips N. V. Entertainment Distribution Company (EDC), Insolvenz 2016 KreHtiv Netzwerk Hannover e.V.; Maße: Masse: 18,3 kg; Objektmaß HxBxT: 240 x 365 x 365 mm; Jahr: um 1980.
-Paragraph 3 (DE): Zustand: Gelegentliche Kratzer auf der Oberfläche.
----
-Paragraph 1 (EN): Object type: Multi-CD-ROM drive with interactive functions.
-Paragraph 2 (EN): The device has a rectangular shape with several slots for CD-ROMs. The front features slots, buttons, and a marked opening. The color scheme is predominantly gray and black, with some blue details. No visible materials or inscriptions. 
-According to the list: Manufacturer: Philips - Koninklijke Philips N. V. Entertainment Distribution Company (EDC), Insolvenz 2016 KreHtiv Netzwerk Hannover e.V.; Dimensions: Masse: 18,3 kg; Objektmaß HxBxT: 240 x 365 x 365 mm; Year: um 1980.
-Paragraph 3 (EN): Condition: Occasional scratches on the surface.
-2) CAPTION (German)
-Mehrfach-CD-ROM-Laufwerk mit interaktiven Funktionen, überwiegend grau und schwarz, datierungslos.</t>
+          <t>Caption line (German)  
+Interaktives System von Philips
+German description:  
+Es handelt sich um ein interaktives System von Philips. Dieses Gerät dient vermutlich zur Multimedia- oder Spielewiedergabe.
+Das Objekt hat eine rechteckige Form mit mehreren Einschüben. Es enthält Öffnungen, eine Klappe für den CD-Zugang, verschiedene Tasten und einen Höreranschluss. Die Farben sind überwiegend beige und schwarz. Angaben laut Liste: Hersteller: Philips - Koninklijke Philips N. V.; Maße: 240 x 365 x 365 mm; Jahr: um 1980.
+Das Gerät befindet sich in einem erhaltenswerten Zustand mit minimalen Gebrauchsspuren. Es sind keine größeren Beschädigungen oder fehlenden Teile sichtbar.
+English description:  
+This is an interactive system by Philips. This device is likely used for multimedia or gaming playback.
+The object has a rectangular shape with several slots. It features openings, a flap for CD access, various buttons, and a headphone jack. The colors are predominantly beige and black. According to the list: Manufacturer: Philips - Koninklijke Philips N. V.; Dimensions: 240 x 365 x 365 mm; Year: around 1980.
+The device is in a preservable condition with minimal signs of use. No major damages or missing parts are visible.</t>
         </is>
       </c>
     </row>
@@ -678,18 +657,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1) CATALOGUE TEXT (DE → EN)
-Paragraph 1 (DE): Objekt ist ein Audiogerät mit der Funktion, Tonaufnahmen abzuspielen oder zu bearbeiten.
-Paragraph 2 (DE): Das Objekt hat eine rechteckige Form mit einer glatten, schwarzen Oberfläche. Auf der Vorderseite befinden sich zwei analoge Messinstrumente sowie mehrere Tasten und ein drehbarer Regler. Es gibt einen Schlitz für ein weiteres Bauteil. Sichtbare Beschriftungen beinhalten "HINTERGRUNDRAUSCHEN" und "DURCH HIGH COM von Telefunken". 
-Angaben laut Liste: Hersteller: Telefunken Fernseh und Rundfunk GmbH; Entertainment Distribution Company (EDC), Insolvenz 2016; KreHtiv Netzwerk Hannover e.V.; Maße: Masse: 6,7 kg; Objektmaß HxBxT: 150 x 460 x 325 mm; Jahr: um 1990.
-Paragraph 3 (DE): Der Zustand weist keine sichtbaren Kratzer oder Beschädigungen auf.
----
-Paragraph 1 (EN): The object is an audio device designed for playing or editing sound recordings.
-Paragraph 2 (EN): The object has a rectangular shape with a smooth, black surface. On the front, there are two analog meters as well as several buttons and a rotary knob. There is a slot for an additional component. Visible labels include "HINTERGRUNDRAUSCHEN" and "DURCH HIGH COM von Telefunken." 
-According to the list: Manufacturer: Telefunken Fernseh und Rundfunk GmbH; Entertainment Distribution Company (EDC), Insolvenz 2016; KreHtiv Netzwerk Hannover e.V.; Dimensions: Masse: 6,7 kg; Objektmaß HxBxT: 150 x 460 x 325 mm; Year: um 1990.
-Paragraph 3 (EN): The condition shows no visible scratches or damages.
-2) CAPTION (German)
-Audiogerät zur Tonaufnahme und -bearbeitung mit schwarzer Oberfläche, datierungslos.</t>
+          <t>Caption line (German)  
+Technisches Gerät von Telefunken
+German description:  
+Das Objekt ist ein HiFi-Gerät, das zur Audioverarbeitung verwendet wird.
+Die Bauform ist rechteckig mit Bedienfeldern auf der Vorderseite. Die Oberfläche ist schwarz, das Gerät verfügt über zwei Zeigerinstrumente und mehrere Knöpfe. Sichtbare Inschrift auf dem Display: „HIFI ohne Rauschen. Durch HIGH COM von Telefunken.“  
+Angaben laut Liste: Hersteller: Telefunken Fernseh und Rundfunk GmbH; Maße: 150 x 460 x 325 mm; Jahr: um 1990.
+Der Artikel weist Kratzer auf und hat möglicherweise Abnutzungserscheinungen.
+English description:  
+The object is a HiFi device used for audio processing.
+The form is rectangular with control panels on the front. The surface is black, and the device features two dial indicators and several buttons. Visible inscription on the display: "HIFI ohne Rauschen. Durch HIGH COM von Telefunken."  
+According to the list: Manufacturer: Telefunken Fernseh und Rundfunk GmbH; Dimensions: 150 x 460 x 325 mm; Year: um 1990.
+The item shows scratches and may have signs of wear.</t>
         </is>
       </c>
     </row>
